--- a/plots_AMU/demographics_by_agegroup.xlsx
+++ b/plots_AMU/demographics_by_agegroup.xlsx
@@ -801,14 +801,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15 – 19 years</t>
+          <t>100+ years</t>
         </is>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>15.29</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="26">
@@ -819,14 +819,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20-24 years</t>
+          <t>15 – 19 years</t>
         </is>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>12.94</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="27">
@@ -837,14 +837,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>25-59 years</t>
+          <t>20-24 years</t>
         </is>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>18.82</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="28">
@@ -855,14 +855,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5-9 years</t>
+          <t>25-59 years</t>
         </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>3.53</v>
+        <v>18.82</v>
       </c>
     </row>
     <row r="29">
@@ -873,14 +873,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>60-99 years</t>
+          <t>5-9 years</t>
         </is>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>17.65</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="30">
@@ -891,14 +891,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&gt;100 years</t>
+          <t>60-99 years</t>
         </is>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>1.18</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="31">
@@ -2007,14 +2007,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>15 – 19 years</t>
+          <t>100+ years</t>
         </is>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>15.15</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="93">
@@ -2025,14 +2025,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>20-24 years</t>
+          <t>15 – 19 years</t>
         </is>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93">
-        <v>3.03</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="94">
@@ -2043,14 +2043,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>25-59 years</t>
+          <t>20-24 years</t>
         </is>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>12.12</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="95">
@@ -2061,14 +2061,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5-9 years</t>
+          <t>25-59 years</t>
         </is>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>3.03</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="96">
@@ -2079,14 +2079,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>60-99 years</t>
+          <t>5-9 years</t>
         </is>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>12.12</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="97">
@@ -2097,14 +2097,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>&gt;100 years</t>
+          <t>60-99 years</t>
         </is>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>3.03</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="98">
@@ -4851,14 +4851,14 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>15 – 19 years</t>
+          <t>100+ years</t>
         </is>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>5.08</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="251">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>20-24 years</t>
+          <t>15 – 19 years</t>
         </is>
       </c>
       <c r="C251">
@@ -4887,14 +4887,14 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>25-59 years</t>
+          <t>20-24 years</t>
         </is>
       </c>
       <c r="C252">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D252">
-        <v>35.59</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="253">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>5-9 years</t>
+          <t>25-59 years</t>
         </is>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D253">
-        <v>5.08</v>
+        <v>35.59</v>
       </c>
     </row>
     <row r="254">
@@ -4923,14 +4923,14 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>60-99 years</t>
+          <t>5-9 years</t>
         </is>
       </c>
       <c r="C254">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D254">
-        <v>11.86</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="255">
@@ -4941,14 +4941,14 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>&gt;100 years</t>
+          <t>60-99 years</t>
         </is>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D255">
-        <v>1.69</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="256">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>15 – 19 years</t>
+          <t>100+ years</t>
         </is>
       </c>
       <c r="C272">
@@ -5265,14 +5265,14 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>20-24 years</t>
+          <t>15 – 19 years</t>
         </is>
       </c>
       <c r="C273">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <v>14.74</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="274">
@@ -5283,14 +5283,14 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>25-59 years</t>
+          <t>20-24 years</t>
         </is>
       </c>
       <c r="C274">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D274">
-        <v>32.63</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="275">
@@ -5301,14 +5301,14 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>5-9 years</t>
+          <t>25-59 years</t>
         </is>
       </c>
       <c r="C275">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D275">
-        <v>9.470000000000001</v>
+        <v>32.63</v>
       </c>
     </row>
     <row r="276">
@@ -5319,14 +5319,14 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>60-99 years</t>
+          <t>5-9 years</t>
         </is>
       </c>
       <c r="C276">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D276">
-        <v>12.63</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="277">
@@ -5337,14 +5337,14 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>&gt;100 years</t>
+          <t>60-99 years</t>
         </is>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D277">
-        <v>2.11</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="278">
@@ -5787,14 +5787,14 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>15 – 19 years</t>
+          <t>100+ years</t>
         </is>
       </c>
       <c r="C302">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D302">
-        <v>9.52</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="303">
@@ -5805,14 +5805,14 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>20-24 years</t>
+          <t>15 – 19 years</t>
         </is>
       </c>
       <c r="C303">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D303">
-        <v>14.29</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="304">
@@ -5823,14 +5823,14 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>25-59 years</t>
+          <t>20-24 years</t>
         </is>
       </c>
       <c r="C304">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D304">
-        <v>16.67</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="305">
@@ -5841,14 +5841,14 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>5-9 years</t>
+          <t>25-59 years</t>
         </is>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D305">
-        <v>2.38</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="306">
@@ -5859,14 +5859,14 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>60-99 years</t>
+          <t>5-9 years</t>
         </is>
       </c>
       <c r="C306">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D306">
-        <v>9.52</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="307">
@@ -5877,14 +5877,14 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>&gt;100 years</t>
+          <t>60-99 years</t>
         </is>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D307">
-        <v>2.38</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="308">
@@ -9621,14 +9621,14 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>15 – 19 years</t>
+          <t>100+ years</t>
         </is>
       </c>
       <c r="C515">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D515">
-        <v>12.12</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="516">
@@ -9639,14 +9639,14 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>20-24 years</t>
+          <t>15 – 19 years</t>
         </is>
       </c>
       <c r="C516">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D516">
-        <v>3.03</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="517">
@@ -9657,14 +9657,14 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>25-59 years</t>
+          <t>20-24 years</t>
         </is>
       </c>
       <c r="C517">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D517">
-        <v>30.3</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="518">
@@ -9675,14 +9675,14 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>5-9 years</t>
+          <t>25-59 years</t>
         </is>
       </c>
       <c r="C518">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D518">
-        <v>7.58</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="519">
@@ -9693,14 +9693,14 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>60-99 years</t>
+          <t>5-9 years</t>
         </is>
       </c>
       <c r="C519">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D519">
-        <v>15.15</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="520">
@@ -9711,14 +9711,14 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>&gt;100 years</t>
+          <t>60-99 years</t>
         </is>
       </c>
       <c r="C520">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D520">
-        <v>1.52</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="521">
